--- a/Code/Upgraded Experiment Rig Python Code/data_outputs/lineup.xlsx
+++ b/Code/Upgraded Experiment Rig Python Code/data_outputs/lineup.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,309 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Trial Block</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Trial Number</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Stimulus 1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Stimulus 2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Stimulus 1 Licks</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Stimulus 2 Licks</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TTC</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Sample Time</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>TTC Actual</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>IA</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
-        <v>13221</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15768</v>
-      </c>
-      <c r="I2" t="n">
-        <v>17307</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.798716306686401</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>IA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>13048</v>
-      </c>
-      <c r="H3" t="n">
-        <v>14973</v>
-      </c>
-      <c r="I3" t="n">
-        <v>13551</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>IA</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>18193</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16316</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13050</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>IA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>16605</v>
-      </c>
-      <c r="H5" t="n">
-        <v>15136</v>
-      </c>
-      <c r="I5" t="n">
-        <v>19869</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>IA</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>18695</v>
-      </c>
-      <c r="H6" t="n">
-        <v>18237</v>
-      </c>
-      <c r="I6" t="n">
-        <v>13210</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>IA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>16854</v>
-      </c>
-      <c r="H7" t="n">
-        <v>19246</v>
-      </c>
-      <c r="I7" t="n">
-        <v>16100</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>IA</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>10638</v>
-      </c>
-      <c r="H8" t="n">
-        <v>14297</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10609</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>IA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
-        <v>17273</v>
-      </c>
-      <c r="H9" t="n">
-        <v>13263</v>
-      </c>
-      <c r="I9" t="n">
-        <v>17425</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>